--- a/MatMul_bench.xlsx
+++ b/MatMul_bench.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eakis\source\repos\EvgeniyKishov\matmul_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981C56EC-6524-4C70-96BD-B0A6D18D447D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="7860"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -23,8 +24,28 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>C# Parallel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C# </t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>C Parallel</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,7 +80,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -75,9 +96,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -127,7 +148,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -153,7 +173,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -242,6 +262,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AB5-47E9-A227-E297303C8BC0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -322,6 +347,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9AB5-47E9-A227-E297303C8BC0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -402,6 +432,104 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9AB5-47E9-A227-E297303C8BC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C Parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$1:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$1:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9AB5-47E9-A227-E297303C8BC0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -466,7 +594,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -492,7 +619,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -530,7 +657,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1634272288"/>
@@ -589,7 +716,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -615,7 +741,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -653,7 +779,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1634271744"/>
@@ -677,7 +803,7 @@
           <c:x val="0.16176650073452767"/>
           <c:y val="0.10459295322015247"/>
           <c:w val="0.23389258582975109"/>
-          <c:h val="0.23160984698492357"/>
+          <c:h val="0.30881312931323146"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -705,7 +831,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -735,7 +861,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1306,20 +1432,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>33336</xdr:rowOff>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1599,16 +1731,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AA34" sqref="AA34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2</v>
       </c>
@@ -1621,8 +1756,11 @@
       <c r="D1">
         <v>0</v>
       </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1635,8 +1773,11 @@
       <c r="D2">
         <v>5</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>500</v>
       </c>
@@ -1649,8 +1790,11 @@
       <c r="D3">
         <v>115</v>
       </c>
+      <c r="E3">
+        <v>67</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -1663,8 +1807,11 @@
       <c r="D4">
         <v>1177</v>
       </c>
+      <c r="E4">
+        <v>681</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -1676,6 +1823,26 @@
       </c>
       <c r="D5">
         <v>11836</v>
+      </c>
+      <c r="E5">
+        <v>6771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/MatMul_bench.xlsx
+++ b/MatMul_bench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eakis\source\repos\EvgeniyKishov\matmul_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981C56EC-6524-4C70-96BD-B0A6D18D447D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB1EBF8-8343-4121-BC28-8C4C03890365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>C# Parallel</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>C Parallel</t>
+  </si>
+  <si>
+    <t>C array</t>
+  </si>
+  <si>
+    <t>C array parallel</t>
   </si>
 </sst>
 </file>
@@ -1432,16 +1438,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:rowOff>52386</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1732,18 +1738,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2</v>
       </c>
@@ -1759,8 +1766,14 @@
       <c r="E1">
         <v>0</v>
       </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1776,8 +1789,14 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>500</v>
       </c>
@@ -1793,8 +1812,14 @@
       <c r="E3">
         <v>67</v>
       </c>
+      <c r="F3">
+        <v>162</v>
+      </c>
+      <c r="G3">
+        <v>36</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -1810,8 +1835,14 @@
       <c r="E4">
         <v>681</v>
       </c>
+      <c r="F4">
+        <v>2077</v>
+      </c>
+      <c r="G4">
+        <v>677</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -1827,8 +1858,14 @@
       <c r="E5">
         <v>6771</v>
       </c>
+      <c r="F5">
+        <v>39660</v>
+      </c>
+      <c r="G5">
+        <v>6075</v>
+      </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1843,6 +1880,12 @@
       </c>
       <c r="E6" t="s">
         <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/MatMul_bench.xlsx
+++ b/MatMul_bench.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eakis\source\repos\EvgeniyKishov\matmul_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB1EBF8-8343-4121-BC28-8C4C03890365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DC890D-EB97-478E-94F3-FF63A3CD03DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t xml:space="preserve">C# </t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>C array parallel</t>
+  </si>
+  <si>
+    <t>C struct</t>
   </si>
 </sst>
 </file>
@@ -878,7 +878,848 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800"/>
+              <a:t>Сравнение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> производительности</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>программ для умножения матриц</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C struct</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$1:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$1:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4175</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E15-4CDC-9191-833EA5AF9FA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C Parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$1:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$1:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6E15-4CDC-9191-833EA5AF9FA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C array</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$1:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$1:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2077</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39660</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6E15-4CDC-9191-833EA5AF9FA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C array parallel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$1:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$G$1:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>672</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6075</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6E15-4CDC-9191-833EA5AF9FA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-1634271744"/>
+        <c:axId val="-1634272288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-1634271744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1600"/>
+                  <a:t>Размерность</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1600" baseline="0"/>
+                  <a:t> матрицы</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1634272288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-1634272288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800"/>
+                  <a:t>Время</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+                  <a:t> работы, мс</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-1634271744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16176650073452767"/>
+          <c:y val="0.10459295322015247"/>
+          <c:w val="0.24384460161560223"/>
+          <c:h val="0.30881312931323146"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1434,20 +2275,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>52386</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>138111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1467,6 +2824,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166689</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6753FC2-9545-4904-BC55-A29E3687955D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1741,7 +3136,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1839,7 +3234,7 @@
         <v>2077</v>
       </c>
       <c r="G4">
-        <v>677</v>
+        <v>672</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1867,10 +3262,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1879,13 +3274,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/MatMul_bench.xlsx
+++ b/MatMul_bench.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eakis\source\repos\EvgeniyKishov\matmul_benchmark\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DC890D-EB97-478E-94F3-FF63A3CD03DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8E4190-CEF6-4E84-942A-2E482714CE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>C# Parallel</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>C struct</t>
+  </si>
+  <si>
+    <t>C++ / OOP</t>
+  </si>
+  <si>
+    <t>C# / OOP</t>
   </si>
 </sst>
 </file>
@@ -534,6 +540,192 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-9AB5-47E9-A227-E297303C8BC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C++ / OOP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$1:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$H$1:$H$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>771</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7677</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>88632</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F8CB-4CD0-8100-2AC7B4F323EE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$I$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C# / OOP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$1:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$I$1:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>101301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACEB-41E3-8310-B2EE99A2F800}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -808,8 +1000,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.16176650073452767"/>
           <c:y val="0.10459295322015247"/>
-          <c:w val="0.23389258582975109"/>
-          <c:h val="0.30881312931323146"/>
+          <c:w val="0.22639302474839182"/>
+          <c:h val="0.44271353080488479"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2796,15 +2988,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>138111</xdr:rowOff>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3133,19 +3325,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="10.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2</v>
       </c>
@@ -3167,8 +3361,14 @@
       <c r="G1">
         <v>0</v>
       </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -3190,8 +3390,14 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>500</v>
       </c>
@@ -3213,8 +3419,14 @@
       <c r="G3">
         <v>36</v>
       </c>
+      <c r="H3">
+        <v>771</v>
+      </c>
+      <c r="I3">
+        <v>899</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -3236,8 +3448,14 @@
       <c r="G4">
         <v>672</v>
       </c>
+      <c r="H4">
+        <v>7677</v>
+      </c>
+      <c r="I4">
+        <v>9482</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -3259,8 +3477,14 @@
       <c r="G5">
         <v>6075</v>
       </c>
+      <c r="H5">
+        <v>88632</v>
+      </c>
+      <c r="I5">
+        <v>101301</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -3281,6 +3505,12 @@
       </c>
       <c r="G6" t="s">
         <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
